--- a/data/us/20-04-30 world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-04-30 world o meter adjusted covid cases by state.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{AC61E1D7-FD09-4E45-B10B-4EFE1FCC8425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB9FC858-1ADF-4C77-861E-0325475F5084}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{AC61E1D7-FD09-4E45-B10B-4EFE1FCC8425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A44ABD9-8ABC-4D96-A8E6-AB6EAFE9A74B}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="-18645" windowWidth="25785" windowHeight="17160" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="4440" yWindow="-19740" windowWidth="25875" windowHeight="16485" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -745,12 +745,6 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -762,6 +756,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1143,22 +1143,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O1" s="6"/>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
     </row>
     <row r="2" spans="1:21" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
@@ -1590,13 +1590,13 @@
       <c r="B9" s="1">
         <v>48746</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="56">
         <v>181</v>
       </c>
       <c r="D9" s="1">
         <v>1944</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="57">
         <v>5</v>
       </c>
       <c r="F9" s="1">
@@ -1660,7 +1660,7 @@
       <c r="B10" s="1">
         <v>45865</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="56">
         <v>137</v>
       </c>
       <c r="D10" s="1">
@@ -2058,13 +2058,13 @@
       <c r="B16" s="1">
         <v>25690</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="56">
         <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>1099</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="57">
         <v>1</v>
       </c>
       <c r="F16" s="1">
@@ -2854,13 +2854,13 @@
       <c r="B28" s="1">
         <v>6925</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="56">
         <v>21</v>
       </c>
       <c r="D28" s="2">
         <v>262</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="57">
         <v>7</v>
       </c>
       <c r="F28" s="1">
@@ -4906,7 +4906,7 @@
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B60" s="39">
@@ -4942,11 +4942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9B5581-99F4-4752-AB5D-E061591DB7E6}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D57"/>
+      <selection pane="bottomRight" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5007,13 +5007,13 @@
       <c r="B2" s="1">
         <v>6925</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="56">
         <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>262</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>7</v>
       </c>
       <c r="F2" s="1">
@@ -5159,13 +5159,13 @@
       <c r="B6" s="1">
         <v>48746</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="56">
         <v>181</v>
       </c>
       <c r="D6" s="1">
         <v>1944</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="57">
         <v>5</v>
       </c>
       <c r="F6" s="1">
@@ -5385,13 +5385,13 @@
       <c r="B12" s="1">
         <v>25690</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="56">
         <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>1099</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="57">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -6488,7 +6488,7 @@
       <c r="B42" s="1">
         <v>45865</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="56">
         <v>137</v>
       </c>
       <c r="D42" s="1">
@@ -6848,7 +6848,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="59" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="1">
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="59" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="41">
@@ -7747,7 +7747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
